--- a/zjoffer.xlsx
+++ b/zjoffer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\zjoffer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19395" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
   <si>
     <t>面试题1</t>
   </si>
@@ -437,6 +442,22 @@
   </si>
   <si>
     <t>trick 中右左遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解题意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实考的是前序遍历和中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,12 +536,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,7 +621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,40 +1284,52 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,14 +1430,18 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1682,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/zjoffer.xlsx
+++ b/zjoffer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
   <si>
     <t>面试题1</t>
   </si>
@@ -458,6 +458,34 @@
   </si>
   <si>
     <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归&amp;下一个排列函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash set会TLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS,max(l,r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右向中间扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意仔细。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约瑟夫环，f=(f+m)%i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进位为&amp; 和为^</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,6 +560,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -551,7 +647,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -832,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1335,14 +1431,18 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1473,27 +1573,35 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1516,14 +1624,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1581,27 +1693,35 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1620,14 +1740,18 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
